--- a/DSA Tracker.xlsx
+++ b/DSA Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\divyeshio\Learning-DSA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Interview Prep\Learning-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E597E7-92C2-4E91-9B69-99E4CF26809B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8882BD1-B4E1-4D2E-AB23-236C690FEF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="5" r:id="rId1"/>
@@ -20,16 +20,27 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$A$1:$B$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
   <si>
     <t>Level</t>
   </si>
@@ -108,6 +119,79 @@
   </si>
   <si>
     <t>Space Complexity</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/two-sum/</t>
+  </si>
+  <si>
+    <t>Two Sum</t>
+  </si>
+  <si>
+    <t>BF - Two for loops
+Better - Use map
+Opimized - Use two pointer</t>
+  </si>
+  <si>
+    <t>n^2
+n
+nlogn</t>
+  </si>
+  <si>
+    <t>1
+n
+n</t>
+  </si>
+  <si>
+    <t>Searching,
+Two Pointer</t>
+  </si>
+  <si>
+    <t>Searching</t>
+  </si>
+  <si>
+    <t>Second Largest Element</t>
+  </si>
+  <si>
+    <t>Very simple check : 
+1. If current element is larger than the largest then assign values to both largest and second largest
+2. Else if it is larger than secondlargest and smaller than largest then assign it to secondLargest</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/second-largest3735/1?utm_source=youtube&amp;utm_medium=collab_striver_ytdescription&amp;utm_campaign=second-largest</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock/</t>
+  </si>
+  <si>
+    <t>Stock - Buy &amp; Sell</t>
+  </si>
+  <si>
+    <t>Find min and max element but index of maximum element should be greater than min element
+Tip : Use inbuilt min and max functions for faster execution</t>
+  </si>
+  <si>
+    <t>Execution</t>
+  </si>
+  <si>
+    <t>1. For finding minimum and maximum, use inbuilt function</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii</t>
+  </si>
+  <si>
+    <t>Medium</t>
+  </si>
+  <si>
+    <t>Stock - Buy &amp; Sell 2</t>
+  </si>
+  <si>
+    <t>Traversal</t>
+  </si>
+  <si>
+    <t>Just keep traversing and finding if current element is more than previous one, then just add it to total profit</t>
   </si>
 </sst>
 </file>
@@ -179,7 +263,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -206,6 +290,16 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -610,26 +704,26 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.88671875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.77734375" style="8" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" customWidth="1"/>
-    <col min="7" max="7" width="45.6640625" customWidth="1"/>
-    <col min="8" max="8" width="66" customWidth="1"/>
-    <col min="9" max="9" width="15.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.7109375" style="8" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="45.7109375" customWidth="1"/>
+    <col min="8" max="8" width="66" style="13" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="29.88671875" customWidth="1"/>
-    <col min="12" max="12" width="12.109375" customWidth="1"/>
+    <col min="11" max="11" width="29.85546875" customWidth="1"/>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -651,7 +745,7 @@
       <c r="G1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="16" t="s">
         <v>2</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -673,7 +767,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -697,106 +791,220 @@
         <v>GFG</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="E3" s="9"/>
+    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="14">
+        <v>44795</v>
+      </c>
       <c r="N3" s="6" t="str">
         <f>HYPERLINK($E3,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E3)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E3)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E3)),"LeetCode",TRUE,""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="E4" s="9"/>
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4" s="14">
+        <v>44800</v>
+      </c>
       <c r="N4" s="6" t="str">
         <f t="shared" ref="N4:N19" si="0">HYPERLINK($E4,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E4)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E4)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E4)),"LeetCode",ISBLANK(E4),""))</f>
-        <v/>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+        <v>GFG</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F5" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5" s="14">
+        <v>44800</v>
+      </c>
       <c r="N5" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>41</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H6" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="I6" t="s">
+        <v>33</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6" s="14">
+        <v>44800</v>
+      </c>
       <c r="N6" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N7" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N8" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N9" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N10" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N11" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N12" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N13" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N14" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N15" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N16" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N17" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="18" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N18" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="19" spans="14:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="14:14" x14ac:dyDescent="0.25">
       <c r="N19" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
@@ -847,19 +1055,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465BFA7F-A839-433B-9EAC-0E05A3CBC751}">
-  <dimension ref="A1:B31"/>
+  <dimension ref="A1:B32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.109375" customWidth="1"/>
-    <col min="2" max="2" width="174.88671875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="2" max="2" width="174.85546875" style="3" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>8</v>
       </c>
@@ -867,7 +1075,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" s="11" customFormat="1" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" s="11" customFormat="1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>20</v>
       </c>
@@ -875,95 +1083,103 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="44.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="5" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
     </row>
-    <row r="7" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
     </row>
-    <row r="8" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
     </row>
-    <row r="9" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
     </row>
-    <row r="10" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
     </row>
-    <row r="11" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
     </row>
-    <row r="12" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
     </row>
-    <row r="13" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
     </row>
-    <row r="15" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
     </row>
-    <row r="16" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
     </row>
-    <row r="17" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
     </row>
-    <row r="18" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
     </row>
-    <row r="19" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
     </row>
-    <row r="20" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
     </row>
-    <row r="21" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
     </row>
-    <row r="22" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
     </row>
-    <row r="23" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
     </row>
-    <row r="24" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
     </row>
-    <row r="25" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
     </row>
-    <row r="26" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
     </row>
-    <row r="27" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
     </row>
-    <row r="28" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
     </row>
-    <row r="29" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
     </row>
-    <row r="30" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
     </row>
-    <row r="31" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
+    </row>
+    <row r="32" spans="1:1" ht="36" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DSA Tracker.xlsx
+++ b/DSA Tracker.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Interview Prep\Learning-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8882BD1-B4E1-4D2E-AB23-236C690FEF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE327385-2357-482F-89A2-9E8F0E755896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$A$1:$B$19</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
   <si>
     <t>Level</t>
   </si>
@@ -176,9 +175,6 @@
     <t>Execution</t>
   </si>
   <si>
-    <t>1. For finding minimum and maximum, use inbuilt function</t>
-  </si>
-  <si>
     <t>https://leetcode.com/problems/best-time-to-buy-and-sell-stock-ii</t>
   </si>
   <si>
@@ -192,6 +188,64 @@
   </si>
   <si>
     <t>Just keep traversing and finding if current element is more than previous one, then just add it to total profit</t>
+  </si>
+  <si>
+    <t>Check if Array is Sorted</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/check-if-an-array-is-sorted0701</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Check if current element is smaller than the previous one then return true</t>
+  </si>
+  <si>
+    <t>Remove duplicates from array</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/remove-duplicate-elements-from-sorted-array</t>
+  </si>
+  <si>
+    <t>Two pointer</t>
+  </si>
+  <si>
+    <t>1st
+1. Use set to store all unique elements
+2. Overwrite array elements with set elements
+3. Return size of set
+2nd
+Traverse using two pointers
+first one to keep the current position
+increase the second one until you find unique element which is not equal to the first pointer's element</t>
+  </si>
+  <si>
+    <t>nlog(n)
+n</t>
+  </si>
+  <si>
+    <t>n
+1</t>
+  </si>
+  <si>
+    <t>Move Zeroes</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/move-zeroes/</t>
+  </si>
+  <si>
+    <t>Similar to remove duplicates, check if current element is 0 then swap it with the element that is not zero and increase the pointer</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/running-sum-of-1d-array/</t>
+  </si>
+  <si>
+    <t>Running sum of array</t>
+  </si>
+  <si>
+    <t>1. For finding minimum and maximum, use inbuilt function
+2. += is faster than a = a + b</t>
   </si>
 </sst>
 </file>
@@ -702,9 +756,9 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J10" sqref="J10"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -904,19 +958,22 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>43</v>
-      </c>
-      <c r="C6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E6" s="8" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="13" t="s">
-        <v>44</v>
       </c>
       <c r="I6" t="s">
         <v>33</v>
@@ -932,28 +989,145 @@
         <v>LeetCode</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+      <c r="K7" s="14">
+        <v>44801</v>
+      </c>
       <c r="N7" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+        <v>GFG</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" t="s">
+        <v>50</v>
+      </c>
+      <c r="C8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="13" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="K8" s="14">
+        <v>44801</v>
+      </c>
       <c r="N8" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+        <v>GFG</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>50</v>
+      </c>
+      <c r="C9" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9" s="14">
+        <v>44801</v>
+      </c>
       <c r="N9" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>LeetCode</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>58</v>
+      </c>
+      <c r="D10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10" s="14">
+        <v>44801</v>
+      </c>
       <c r="N10" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>LeetCode</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
@@ -1057,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465BFA7F-A839-433B-9EAC-0E05A3CBC751}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1083,12 +1257,12 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:2" s="11" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="11" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">

--- a/DSA Tracker.xlsx
+++ b/DSA Tracker.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Interview Prep\Learning-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE327385-2357-482F-89A2-9E8F0E755896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1364DD11-82AC-47B1-B554-71F90FA08045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="5" r:id="rId1"/>
     <sheet name="Notes" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$A$1:$B$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$A$1:$B$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
   <si>
     <t>Level</t>
   </si>
@@ -203,9 +203,6 @@
   </si>
   <si>
     <t>Remove duplicates from array</t>
-  </si>
-  <si>
-    <t>https://practice.geeksforgeeks.org/problems/remove-duplicate-elements-from-sorted-array</t>
   </si>
   <si>
     <t>Two pointer</t>
@@ -246,6 +243,98 @@
   <si>
     <t>1. For finding minimum and maximum, use inbuilt function
 2. += is faster than a = a + b</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-pivot-index</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/reversal-algorithm5340/</t>
+  </si>
+  <si>
+    <t>Rotate an array</t>
+  </si>
+  <si>
+    <t>Pivot of an Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-array/</t>
+  </si>
+  <si>
+    <t>Rotate an array to right by k indexes</t>
+  </si>
+  <si>
+    <t>First rotate the first part, then rotate the second part, then rotate the whole array</t>
+  </si>
+  <si>
+    <t>Similar to left rotate, just calculate offset from left and then same as above</t>
+  </si>
+  <si>
+    <t>Use three pointers- low, mid and high to track 0s,1,s and 2s respectively.
+Run until mid is &lt;= high
+1. If(mid=0) swap low and mid element and increase both
+2. if mid=1, just increment mid
+3. if mid=2, swap high and mid element and decrease just high</t>
+  </si>
+  <si>
+    <t>Rotation</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/sort-colors/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subarray-sum-equals-k/</t>
+  </si>
+  <si>
+    <t>Sub array sum equals</t>
+  </si>
+  <si>
+    <t>1. Two for loops - TLE
+2.</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/who-will-win-1587115621/</t>
+  </si>
+  <si>
+    <t>Search in sorted Array</t>
+  </si>
+  <si>
+    <t>TLE</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/single-number</t>
+  </si>
+  <si>
+    <t>Find Single Number</t>
+  </si>
+  <si>
+    <t>Bitwise</t>
+  </si>
+  <si>
+    <t>xor every element in array, result is the missing number</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/majority-element/</t>
+  </si>
+  <si>
+    <t>Majority Element</t>
+  </si>
+  <si>
+    <t>Travesal</t>
+  </si>
+  <si>
+    <t>Traverse and keep a counter, if the counter is zero assign the current element, if current element is equal to possible answer then increase the counter else decrease the counter</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-duplicates-from-sorted-array/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rearrange-array-elements-by-sign</t>
+  </si>
+  <si>
+    <t>Re-arrange +/- elements</t>
+  </si>
+  <si>
+    <t>Use two pointers to track indexes for positive and negative, if you add positive element to ans array then increase it by 2, similary for the other one.</t>
   </si>
 </sst>
 </file>
@@ -317,7 +406,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -355,13 +444,90 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="7">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -754,11 +920,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D0B1FB-A50E-42B4-8A6B-8F3A7CB4092B}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,10 +934,10 @@
     <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
-    <col min="7" max="7" width="45.7109375" customWidth="1"/>
+    <col min="7" max="7" width="33.140625" customWidth="1"/>
     <col min="8" max="8" width="66" style="13" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="29.85546875" customWidth="1"/>
     <col min="12" max="12" width="12.140625" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
@@ -821,7 +987,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -839,153 +1005,159 @@
       </c>
       <c r="F2" t="s">
         <v>17</v>
+      </c>
+      <c r="H2" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="14">
+        <v>44801</v>
       </c>
       <c r="N2" s="6" t="str">
         <f>HYPERLINK($E2,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E2)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E2)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E2)),"LeetCode",ISBLANK(E2),""))</f>
         <v>GFG</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="15" t="s">
-        <v>29</v>
+      <c r="B3" t="s">
+        <v>15</v>
       </c>
       <c r="C3" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="9" t="s">
-        <v>24</v>
+      <c r="E3" s="7" t="s">
+        <v>69</v>
       </c>
       <c r="F3" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="J3" s="13" t="s">
-        <v>28</v>
+        <v>46</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
       </c>
       <c r="K3" s="14">
-        <v>44795</v>
-      </c>
-      <c r="N3" s="6" t="str">
-        <f>HYPERLINK($E3,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E3)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E3)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E3)),"LeetCode",TRUE,""))</f>
-        <v>LeetCode</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" ht="75" x14ac:dyDescent="0.25">
-      <c r="A4" s="10" t="s">
+        <v>44801</v>
+      </c>
+      <c r="N3" s="6"/>
+    </row>
+    <row r="4" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="13" t="s">
-        <v>30</v>
+      <c r="B4" s="15" t="s">
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
         <v>17</v>
       </c>
       <c r="H4" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="I4" t="s">
-        <v>33</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
+        <v>26</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>28</v>
       </c>
       <c r="K4" s="14">
-        <v>44800</v>
+        <v>44795</v>
       </c>
       <c r="N4" s="6" t="str">
-        <f t="shared" ref="N4:N19" si="0">HYPERLINK($E4,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E4)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E4)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E4)),"LeetCode",ISBLANK(E4),""))</f>
-        <v>GFG</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+        <f>HYPERLINK($E4,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E4)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E4)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E4)),"LeetCode",TRUE,""))</f>
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="13" t="s">
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>35</v>
+      <c r="E5" s="9" t="s">
+        <v>34</v>
       </c>
       <c r="F5" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="13" t="s">
-        <v>37</v>
-      </c>
-      <c r="I5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="1">
         <v>1</v>
       </c>
       <c r="K5" s="14">
         <v>44800</v>
       </c>
       <c r="N5" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>LeetCode</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+        <f>HYPERLINK($E5,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E5)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E5)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E5)),"LeetCode",ISBLANK(E5),""))</f>
+        <v>GFG</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="F6" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="F6" t="s">
         <v>17</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="I6" t="s">
+        <v>37</v>
+      </c>
+      <c r="I6" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="1">
         <v>1</v>
       </c>
       <c r="K6" s="14">
         <v>44800</v>
       </c>
       <c r="N6" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK($E6,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E6)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E6)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E6)),"LeetCode",ISBLANK(E6),""))</f>
         <v>LeetCode</v>
       </c>
     </row>
@@ -994,216 +1166,471 @@
         <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>15</v>
+        <v>42</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H7" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I7" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="1">
         <v>1</v>
       </c>
       <c r="K7" s="14">
-        <v>44801</v>
+        <v>44800</v>
       </c>
       <c r="N7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>GFG</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+        <f>HYPERLINK($E7,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E7)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E7)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E7)),"LeetCode",ISBLANK(E7),""))</f>
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8" s="8" t="s">
-        <v>49</v>
+      <c r="E8" s="9" t="s">
+        <v>45</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="H8" s="13" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="J8" s="13" t="s">
-        <v>53</v>
+        <v>47</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
       </c>
       <c r="K8" s="14">
         <v>44801</v>
       </c>
       <c r="N8" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK($E8,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E8)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E8)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E8)),"LeetCode",ISBLANK(E8),""))</f>
         <v>GFG</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C9" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="8" t="s">
-        <v>55</v>
+      <c r="E9" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="I9" t="s">
-        <v>33</v>
-      </c>
-      <c r="J9">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="I9" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J9" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="K9" s="14">
         <v>44801</v>
       </c>
       <c r="N9" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK($E9,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E9)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E9)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E9)),"LeetCode",ISBLANK(E9),""))</f>
         <v>LeetCode</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="I10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="1">
         <v>1</v>
       </c>
       <c r="K10" s="14">
         <v>44801</v>
       </c>
       <c r="N10" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK($E10,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E10)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E10)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E10)),"LeetCode",ISBLANK(E10),""))</f>
         <v>LeetCode</v>
       </c>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F11" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J11" s="1">
+        <v>1</v>
+      </c>
+      <c r="K11" s="14">
+        <v>44801</v>
+      </c>
       <c r="N11" s="6" t="str">
-        <f t="shared" si="0"/>
+        <f>HYPERLINK($E11,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E11)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E11)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E11)),"LeetCode",ISBLANK(E11),""))</f>
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
+      <c r="D12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="F12" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K12" s="14">
+        <v>44801</v>
+      </c>
+      <c r="N12" s="6" t="str">
+        <f>HYPERLINK($E12,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E12)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E12)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E12)),"LeetCode",ISBLANK(E12),""))</f>
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>61</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="F13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J13" s="1">
+        <v>1</v>
+      </c>
+      <c r="K13" s="14">
+        <v>44801</v>
+      </c>
+      <c r="N13" s="6" t="str">
+        <f>HYPERLINK($E13,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E13)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E13)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E13)),"LeetCode",ISBLANK(E13),""))</f>
+        <v>GFG</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" t="s">
+        <v>64</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" s="1">
+        <v>1</v>
+      </c>
+      <c r="K14" s="14">
+        <v>44801</v>
+      </c>
+      <c r="N14" s="6" t="str">
+        <f>HYPERLINK($E14,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E14)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E14)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E14)),"LeetCode",ISBLANK(E14),""))</f>
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F15" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="K15" s="14">
+        <v>44801</v>
+      </c>
+      <c r="N15" s="6" t="str">
+        <f>HYPERLINK($E15,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E15)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E15)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E15)),"LeetCode",ISBLANK(E15),""))</f>
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="F16" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="K16" s="14">
+        <v>44801</v>
+      </c>
+      <c r="N16" s="6" t="str">
+        <f>HYPERLINK($E16,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E16)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E16)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E16)),"LeetCode",ISBLANK(E16),""))</f>
+        <v>GFG</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="C17" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J17" s="1">
+        <v>1</v>
+      </c>
+      <c r="K17" s="14">
+        <v>44801</v>
+      </c>
+      <c r="N17" s="6" t="str">
+        <f>HYPERLINK($E17,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E17)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E17)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E17)),"LeetCode",ISBLANK(E17),""))</f>
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" t="s">
+        <v>82</v>
+      </c>
+      <c r="C18" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="1">
+        <v>1</v>
+      </c>
+      <c r="K18" s="14">
+        <v>44801</v>
+      </c>
+      <c r="N18" s="6" t="str">
+        <f>HYPERLINK($E18,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E18)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E18)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E18)),"LeetCode",ISBLANK(E18),""))</f>
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K19" s="14">
+        <v>44801</v>
+      </c>
+      <c r="N19" s="6" t="str">
+        <f>HYPERLINK($E19,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E19)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E19)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E19)),"LeetCode",ISBLANK(E19),""))</f>
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N20" s="6" t="str">
+        <f>HYPERLINK($E20,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E20)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E20)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E20)),"LeetCode",ISBLANK(E20),""))</f>
         <v/>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="17" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="18" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="19" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N19" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:B19" xr:uid="{AC222E2B-8064-4F1C-BFD0-04DC77C0240F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N19">
-    <sortCondition ref="A2:A19"/>
-    <sortCondition ref="B2:B19"/>
+  <autoFilter ref="A1:B20" xr:uid="{AC222E2B-8064-4F1C-BFD0-04DC77C0240F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N20">
+    <sortCondition ref="A2:A20"/>
+    <sortCondition ref="B2:B20"/>
   </sortState>
   <dataConsolidate/>
-  <conditionalFormatting sqref="F2:F100">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="F2:F101">
+    <cfRule type="expression" dxfId="6" priority="1">
       <formula>$F2="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:N100">
-    <cfRule type="expression" dxfId="2" priority="2">
+  <conditionalFormatting sqref="A2:N101">
+    <cfRule type="expression" dxfId="5" priority="2">
       <formula>$D2="Hard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="1" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="0" priority="4">
+    <cfRule type="expression" dxfId="3" priority="4">
       <formula>$D2="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1214,16 +1641,21 @@
     <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="F2:F1048576" xr:uid="{394EB3D6-AD86-4543-912C-2C2F02AFAB1F}">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L3:L1048576" xr:uid="{1B4D1513-A8B0-4B52-A3E9-C986B2172CC7}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L4:L1048576" xr:uid="{1B4D1513-A8B0-4B52-A3E9-C986B2172CC7}">
       <formula1>1</formula1>
       <formula2>100</formula2>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{F32B788E-BD5A-410E-BC2B-8BC8EFB452A8}"/>
+    <hyperlink ref="E14" r:id="rId2" xr:uid="{F283A9DA-D939-4F0F-9FE9-1731354C57A6}"/>
+    <hyperlink ref="E3" r:id="rId3" xr:uid="{E3514CEC-2111-40E0-8BEE-A276FDF2167F}"/>
+    <hyperlink ref="E16" r:id="rId4" xr:uid="{DEED6071-BEA9-466D-8204-619905DB9BC3}"/>
+    <hyperlink ref="E8" r:id="rId5" xr:uid="{A820BA95-E34F-4483-854C-F3E4403DD398}"/>
+    <hyperlink ref="E19" r:id="rId6" xr:uid="{52AD257C-C28D-4E7F-9A27-08A73469B06D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
@@ -1231,8 +1663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{465BFA7F-A839-433B-9EAC-0E05A3CBC751}">
   <dimension ref="A1:B32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,7 +1694,7 @@
         <v>38</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="44.45" customHeight="1" x14ac:dyDescent="0.25">

--- a/DSA Tracker.xlsx
+++ b/DSA Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Interview Prep\Learning-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1364DD11-82AC-47B1-B554-71F90FA08045}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1467D5E5-C94A-49CB-A5AE-78AFA668B7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="103">
   <si>
     <t>Level</t>
   </si>
@@ -263,9 +263,6 @@
     <t>Rotate an array to right by k indexes</t>
   </si>
   <si>
-    <t>First rotate the first part, then rotate the second part, then rotate the whole array</t>
-  </si>
-  <si>
     <t>Similar to left rotate, just calculate offset from left and then same as above</t>
   </si>
   <si>
@@ -335,6 +332,65 @@
   </si>
   <si>
     <t>Use two pointers to track indexes for positive and negative, if you add positive element to ans array then increase it by 2, similary for the other one.</t>
+  </si>
+  <si>
+    <t>First reverse the first part, then reverse the second part, then reverse the whole array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/rotate-image/</t>
+  </si>
+  <si>
+    <t>Matrix</t>
+  </si>
+  <si>
+    <t>Rotate 90 deg</t>
+  </si>
+  <si>
+    <t>1. Transpose the matrix
+2. Swap rows</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/maximum-subarray</t>
+  </si>
+  <si>
+    <t>Maximum SubArray</t>
+  </si>
+  <si>
+    <t>App 1:
+Brute force using 3 for loops and finding sum
+App 2:
+Optimise to calculate sum outside of 3rd loop
+App 3:
+Use Kadane's Algorithm to calculate maximum sub array</t>
+  </si>
+  <si>
+    <t>n^3
+n^2
+n</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/longest-consecutive-sequence/</t>
+  </si>
+  <si>
+    <t>Longest Consecutive Sequence</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/peak-index-in-a-mountain-array/</t>
+  </si>
+  <si>
+    <t>Peak element in Mountain Array</t>
+  </si>
+  <si>
+    <t>Binary Search</t>
+  </si>
+  <si>
+    <t>logn</t>
+  </si>
+  <si>
+    <t>Apply Binary search with following conditions:
+1. If current element is smaller than next element then set start pointer to mid + 1
+2. Else set end pointer to mid
+At the end start pointer will point to peak element</t>
   </si>
 </sst>
 </file>
@@ -453,81 +509,7 @@
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="4">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -920,11 +902,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D0B1FB-A50E-42B4-8A6B-8F3A7CB4092B}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L9" sqref="L9"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,7 +989,7 @@
         <v>17</v>
       </c>
       <c r="H2" s="13" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I2" s="1" t="s">
         <v>33</v>
@@ -1037,7 +1019,7 @@
         <v>16</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" t="s">
         <v>46</v>
@@ -1121,7 +1103,7 @@
         <v>44800</v>
       </c>
       <c r="N5" s="6" t="str">
-        <f>HYPERLINK($E5,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E5)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E5)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E5)),"LeetCode",ISBLANK(E5),""))</f>
+        <f t="shared" ref="N5:N50" si="0">HYPERLINK($E5,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E5)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E5)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E5)),"LeetCode",ISBLANK(E5),""))</f>
         <v>GFG</v>
       </c>
     </row>
@@ -1157,7 +1139,7 @@
         <v>44800</v>
       </c>
       <c r="N6" s="6" t="str">
-        <f>HYPERLINK($E6,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E6)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E6)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E6)),"LeetCode",ISBLANK(E6),""))</f>
+        <f t="shared" si="0"/>
         <v>LeetCode</v>
       </c>
     </row>
@@ -1193,7 +1175,7 @@
         <v>44800</v>
       </c>
       <c r="N7" s="6" t="str">
-        <f>HYPERLINK($E7,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E7)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E7)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E7)),"LeetCode",ISBLANK(E7),""))</f>
+        <f t="shared" si="0"/>
         <v>LeetCode</v>
       </c>
     </row>
@@ -1229,7 +1211,7 @@
         <v>44801</v>
       </c>
       <c r="N8" s="6" t="str">
-        <f>HYPERLINK($E8,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E8)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E8)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E8)),"LeetCode",ISBLANK(E8),""))</f>
+        <f t="shared" si="0"/>
         <v>GFG</v>
       </c>
     </row>
@@ -1247,7 +1229,7 @@
         <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>17</v>
@@ -1265,7 +1247,7 @@
         <v>44801</v>
       </c>
       <c r="N9" s="6" t="str">
-        <f>HYPERLINK($E9,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E9)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E9)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E9)),"LeetCode",ISBLANK(E9),""))</f>
+        <f t="shared" si="0"/>
         <v>LeetCode</v>
       </c>
     </row>
@@ -1301,7 +1283,7 @@
         <v>44801</v>
       </c>
       <c r="N10" s="6" t="str">
-        <f>HYPERLINK($E10,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E10)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E10)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E10)),"LeetCode",ISBLANK(E10),""))</f>
+        <f t="shared" si="0"/>
         <v>LeetCode</v>
       </c>
     </row>
@@ -1334,7 +1316,7 @@
         <v>44801</v>
       </c>
       <c r="N11" s="6" t="str">
-        <f>HYPERLINK($E11,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E11)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E11)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E11)),"LeetCode",ISBLANK(E11),""))</f>
+        <f t="shared" si="0"/>
         <v>LeetCode</v>
       </c>
     </row>
@@ -1361,7 +1343,7 @@
         <v>44801</v>
       </c>
       <c r="N12" s="6" t="str">
-        <f>HYPERLINK($E12,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E12)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E12)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E12)),"LeetCode",ISBLANK(E12),""))</f>
+        <f t="shared" si="0"/>
         <v>LeetCode</v>
       </c>
     </row>
@@ -1370,7 +1352,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" t="s">
         <v>61</v>
@@ -1385,7 +1367,7 @@
         <v>17</v>
       </c>
       <c r="H13" s="13" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="I13" s="1" t="s">
         <v>33</v>
@@ -1397,7 +1379,7 @@
         <v>44801</v>
       </c>
       <c r="N13" s="6" t="str">
-        <f>HYPERLINK($E13,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E13)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E13)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E13)),"LeetCode",ISBLANK(E13),""))</f>
+        <f t="shared" si="0"/>
         <v>GFG</v>
       </c>
     </row>
@@ -1406,7 +1388,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C14" t="s">
         <v>64</v>
@@ -1421,7 +1403,7 @@
         <v>46</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>33</v>
@@ -1433,7 +1415,7 @@
         <v>44801</v>
       </c>
       <c r="N14" s="6" t="str">
-        <f>HYPERLINK($E14,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E14)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E14)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E14)),"LeetCode",ISBLANK(E14),""))</f>
+        <f t="shared" si="0"/>
         <v>LeetCode</v>
       </c>
     </row>
@@ -1445,25 +1427,25 @@
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
       </c>
       <c r="E15" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F15" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="K15" s="14">
         <v>44801</v>
       </c>
       <c r="N15" s="6" t="str">
-        <f>HYPERLINK($E15,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E15)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E15)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E15)),"LeetCode",ISBLANK(E15),""))</f>
+        <f t="shared" si="0"/>
         <v>LeetCode</v>
       </c>
     </row>
@@ -1475,25 +1457,25 @@
         <v>30</v>
       </c>
       <c r="C16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="9" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="K16" s="14">
         <v>44801</v>
       </c>
       <c r="N16" s="6" t="str">
-        <f>HYPERLINK($E16,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E16)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E16)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E16)),"LeetCode",ISBLANK(E16),""))</f>
+        <f t="shared" si="0"/>
         <v>GFG</v>
       </c>
     </row>
@@ -1502,22 +1484,22 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C17" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" s="8" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I17" s="1" t="s">
         <v>33</v>
@@ -1529,7 +1511,7 @@
         <v>44801</v>
       </c>
       <c r="N17" s="6" t="str">
-        <f>HYPERLINK($E17,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E17)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E17)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E17)),"LeetCode",ISBLANK(E17),""))</f>
+        <f t="shared" si="0"/>
         <v>LeetCode</v>
       </c>
     </row>
@@ -1538,22 +1520,22 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C18" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="8" t="s">
-        <v>80</v>
+      <c r="E18" s="9" t="s">
+        <v>79</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>33</v>
@@ -1565,7 +1547,7 @@
         <v>44801</v>
       </c>
       <c r="N18" s="6" t="str">
-        <f>HYPERLINK($E18,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E18)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E18)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E18)),"LeetCode",ISBLANK(E18),""))</f>
+        <f t="shared" si="0"/>
         <v>LeetCode</v>
       </c>
     </row>
@@ -1577,19 +1559,19 @@
         <v>49</v>
       </c>
       <c r="C19" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D19" t="s">
         <v>40</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>33</v>
@@ -1601,13 +1583,295 @@
         <v>44801</v>
       </c>
       <c r="N19" s="6" t="str">
-        <f>HYPERLINK($E19,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E19)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E19)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E19)),"LeetCode",ISBLANK(E19),""))</f>
+        <f t="shared" si="0"/>
         <v>LeetCode</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" t="s">
+        <v>89</v>
+      </c>
+      <c r="C20" t="s">
+        <v>90</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1</v>
+      </c>
+      <c r="K20" s="14">
+        <v>44804</v>
+      </c>
       <c r="N20" s="6" t="str">
-        <f>HYPERLINK($E20,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E20)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E20)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E20)),"LeetCode",ISBLANK(E20),""))</f>
+        <f t="shared" si="0"/>
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" t="s">
+        <v>93</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1</v>
+      </c>
+      <c r="K21" s="14">
+        <v>44804</v>
+      </c>
+      <c r="N21" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22" t="s">
+        <v>97</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K22" s="14">
+        <v>44806</v>
+      </c>
+      <c r="N22" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" t="s">
+        <v>99</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1</v>
+      </c>
+      <c r="K23" s="14">
+        <v>44807</v>
+      </c>
+      <c r="N23" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N24" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N26" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N27" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N28" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N29" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N36" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N37" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N38" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N39" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="40" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N40" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N41" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N42" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="43" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N43" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="44" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N44" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="45" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N45" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="46" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N46" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="47" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N47" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="48" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N48" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="49" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N49" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
+    <row r="50" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N50" s="6" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
@@ -1619,18 +1883,18 @@
   </sortState>
   <dataConsolidate/>
   <conditionalFormatting sqref="F2:F101">
-    <cfRule type="expression" dxfId="6" priority="1">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$F2="No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A2:N101">
-    <cfRule type="expression" dxfId="5" priority="2">
+    <cfRule type="expression" dxfId="2" priority="2">
       <formula>$D2="Hard"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="4" priority="3">
+    <cfRule type="expression" dxfId="1" priority="3">
       <formula>$D2="Medium"</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="4">
+    <cfRule type="expression" dxfId="0" priority="4">
       <formula>$D2="Easy"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1653,9 +1917,12 @@
     <hyperlink ref="E16" r:id="rId4" xr:uid="{DEED6071-BEA9-466D-8204-619905DB9BC3}"/>
     <hyperlink ref="E8" r:id="rId5" xr:uid="{A820BA95-E34F-4483-854C-F3E4403DD398}"/>
     <hyperlink ref="E19" r:id="rId6" xr:uid="{52AD257C-C28D-4E7F-9A27-08A73469B06D}"/>
+    <hyperlink ref="E18" r:id="rId7" xr:uid="{71656C28-352C-4B88-BB47-4BDD8A04CAAC}"/>
+    <hyperlink ref="E21" r:id="rId8" xr:uid="{4FABE897-285E-4BB6-962D-1D640F2EC7E6}"/>
+    <hyperlink ref="E22" r:id="rId9" xr:uid="{F2D817F8-E524-4526-ADD6-04BDAFF2141C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId7"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>
 

--- a/DSA Tracker.xlsx
+++ b/DSA Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Interview Prep\Learning-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1467D5E5-C94A-49CB-A5AE-78AFA668B7D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB8FEF2-1809-401D-A31D-B1F45CB754FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$A$1:$B$20</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="109">
   <si>
     <t>Level</t>
   </si>
@@ -391,6 +392,26 @@
 1. If current element is smaller than next element then set start pointer to mid + 1
 2. Else set end pointer to mid
 At the end start pointer will point to peak element</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/search-in-rotated-sorted-array/</t>
+  </si>
+  <si>
+    <t>1. Find pivot of the array
+2. If target is greater than pivot element and less than last element then search in 2nd part
+3. Else search in 1st part using Binary search</t>
+  </si>
+  <si>
+    <t>Selection Sort Array</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/selection-sort/</t>
+  </si>
+  <si>
+    <t>Pick minimum element from array and swap it with current index and increase the index</t>
+  </si>
+  <si>
+    <t>n^2</t>
   </si>
 </sst>
 </file>
@@ -905,8 +926,8 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H17" sqref="H17"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1713,16 +1734,76 @@
         <v>LeetCode</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1</v>
+      </c>
+      <c r="K24" s="14">
+        <v>44807</v>
+      </c>
       <c r="N24" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>105</v>
+      </c>
+      <c r="D25" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1</v>
+      </c>
+      <c r="K25" s="14">
+        <v>44808</v>
+      </c>
       <c r="N25" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>GFG</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">

--- a/DSA Tracker.xlsx
+++ b/DSA Tracker.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Interview Prep\Learning-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAB8FEF2-1809-401D-A31D-B1F45CB754FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD2709C-6C0E-465E-8F8E-79B2C6997228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
     <sheet name="Notes" sheetId="6" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$A$1:$B$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$A$1:$B$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="117">
   <si>
     <t>Level</t>
   </si>
@@ -412,6 +412,30 @@
   </si>
   <si>
     <t>n^2</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/find-minimum-in-rotated-sorted-array/</t>
+  </si>
+  <si>
+    <t>Minimum in Rotated Sorted Array</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/check-if-array-is-sorted-and-rotated/</t>
+  </si>
+  <si>
+    <t>Check if Array is Sorted and Rotated</t>
+  </si>
+  <si>
+    <t>Check if current element is smaller than the previous one then and then check if last elemen is smaller than first element then return true else false</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/check-if-all-as-appears-before-all-bs/</t>
+  </si>
+  <si>
+    <t>Check if All A's Appears Before All B's</t>
+  </si>
+  <si>
+    <t>Keep a flag for check, traverse through all the characters in string and if b is found then assign false to flag, and move forward. Moving forward if flag is false and character is a then return true. Else return true</t>
   </si>
 </sst>
 </file>
@@ -923,18 +947,18 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7D0B1FB-A50E-42B4-8A6B-8F3A7CB4092B}">
   <sheetPr codeName="Sheet5"/>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G25" sqref="G25"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.42578125" style="13" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.7109375" style="8" customWidth="1"/>
     <col min="6" max="6" width="9.85546875" customWidth="1"/>
     <col min="7" max="7" width="33.140625" customWidth="1"/>
@@ -953,7 +977,7 @@
       <c r="B1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="16" t="s">
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
@@ -997,7 +1021,7 @@
       <c r="B2" t="s">
         <v>15</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D2" t="s">
@@ -1033,7 +1057,7 @@
       <c r="B3" t="s">
         <v>15</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="D3" t="s">
@@ -1063,7 +1087,7 @@
       <c r="B4" s="15" t="s">
         <v>29</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="13" t="s">
         <v>25</v>
       </c>
       <c r="D4" t="s">
@@ -1099,7 +1123,7 @@
       <c r="B5" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C5" s="13" t="s">
         <v>31</v>
       </c>
       <c r="D5" t="s">
@@ -1124,7 +1148,7 @@
         <v>44800</v>
       </c>
       <c r="N5" s="6" t="str">
-        <f t="shared" ref="N5:N50" si="0">HYPERLINK($E5,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E5)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E5)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E5)),"LeetCode",ISBLANK(E5),""))</f>
+        <f t="shared" ref="N5:N51" si="0">HYPERLINK($E5,_xlfn.IFS(ISNUMBER(SEARCH("geeksforgeeks.org",E5)),"GFG",ISNUMBER(SEARCH("codingninjas.com",E5)),"CodeStudio",ISNUMBER(SEARCH("leetcode.com",E5)),"LeetCode",ISBLANK(E5),""))</f>
         <v>GFG</v>
       </c>
     </row>
@@ -1135,7 +1159,7 @@
       <c r="B6" t="s">
         <v>30</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="13" t="s">
         <v>36</v>
       </c>
       <c r="D6" t="s">
@@ -1171,7 +1195,7 @@
       <c r="B7" t="s">
         <v>42</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C7" s="13" t="s">
         <v>41</v>
       </c>
       <c r="D7" t="s">
@@ -1205,9 +1229,9 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="13" t="s">
         <v>44</v>
       </c>
       <c r="D8" t="s">
@@ -1236,69 +1260,69 @@
         <v>GFG</v>
       </c>
     </row>
-    <row r="9" spans="1:14" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>49</v>
-      </c>
-      <c r="C9" t="s">
-        <v>48</v>
+        <v>42</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>112</v>
       </c>
       <c r="D9" t="s">
         <v>16</v>
       </c>
       <c r="E9" s="9" t="s">
-        <v>83</v>
+        <v>111</v>
       </c>
       <c r="F9" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H9" s="13" t="s">
-        <v>50</v>
-      </c>
-      <c r="I9" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="J9" s="17" t="s">
-        <v>52</v>
+        <v>113</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
       </c>
       <c r="K9" s="14">
-        <v>44801</v>
+        <v>44808</v>
       </c>
       <c r="N9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>LeetCode</v>
       </c>
     </row>
-    <row r="10" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
       <c r="B10" t="s">
         <v>49</v>
       </c>
-      <c r="C10" t="s">
-        <v>53</v>
+      <c r="C10" s="13" t="s">
+        <v>48</v>
       </c>
       <c r="D10" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>54</v>
+      <c r="E10" s="9" t="s">
+        <v>83</v>
       </c>
       <c r="F10" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H10" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="I10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1</v>
+        <v>50</v>
+      </c>
+      <c r="I10" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="J10" s="17" t="s">
+        <v>52</v>
       </c>
       <c r="K10" s="14">
         <v>44801</v>
@@ -1308,24 +1332,27 @@
         <v>LeetCode</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11" t="s">
-        <v>57</v>
+        <v>49</v>
+      </c>
+      <c r="C11" s="13" t="s">
+        <v>53</v>
       </c>
       <c r="D11" t="s">
         <v>16</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>46</v>
+        <v>17</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="I11" s="1" t="s">
         <v>33</v>
@@ -1348,17 +1375,23 @@
       <c r="B12" t="s">
         <v>42</v>
       </c>
-      <c r="C12" t="s">
-        <v>62</v>
+      <c r="C12" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="D12" t="s">
         <v>16</v>
       </c>
       <c r="E12" s="8" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>17</v>
+        <v>46</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J12" s="1">
+        <v>1</v>
       </c>
       <c r="K12" s="14">
         <v>44801</v>
@@ -1368,40 +1401,31 @@
         <v>LeetCode</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
-      </c>
-      <c r="C13" t="s">
-        <v>61</v>
+        <v>42</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>62</v>
       </c>
       <c r="D13" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E13" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="F13" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>17</v>
-      </c>
-      <c r="H13" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="I13" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J13" s="1">
-        <v>1</v>
       </c>
       <c r="K13" s="14">
         <v>44801</v>
       </c>
       <c r="N13" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>GFG</v>
+        <v>LeetCode</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1411,20 +1435,20 @@
       <c r="B14" t="s">
         <v>67</v>
       </c>
-      <c r="C14" t="s">
-        <v>64</v>
+      <c r="C14" s="13" t="s">
+        <v>61</v>
       </c>
       <c r="D14" t="s">
         <v>40</v>
       </c>
-      <c r="E14" s="9" t="s">
-        <v>63</v>
+      <c r="E14" s="8" t="s">
+        <v>60</v>
       </c>
       <c r="F14" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="H14" s="13" t="s">
-        <v>65</v>
+        <v>87</v>
       </c>
       <c r="I14" s="1" t="s">
         <v>33</v>
@@ -1437,7 +1461,7 @@
       </c>
       <c r="N14" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>LeetCode</v>
+        <v>GFG</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="30" x14ac:dyDescent="0.25">
@@ -1445,22 +1469,28 @@
         <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>64</v>
       </c>
       <c r="D15" t="s">
         <v>40</v>
       </c>
-      <c r="E15" s="8" t="s">
-        <v>69</v>
-      </c>
-      <c r="F15" s="8" t="s">
-        <v>17</v>
+      <c r="E15" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="F15" t="s">
+        <v>46</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>71</v>
+        <v>65</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J15" s="1">
+        <v>1</v>
       </c>
       <c r="K15" s="14">
         <v>44801</v>
@@ -1470,34 +1500,34 @@
         <v>LeetCode</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>30</v>
-      </c>
-      <c r="C16" t="s">
-        <v>73</v>
+        <v>42</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>70</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>72</v>
+        <v>40</v>
+      </c>
+      <c r="E16" s="8" t="s">
+        <v>69</v>
       </c>
       <c r="F16" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H16" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="K16" s="14">
         <v>44801</v>
       </c>
       <c r="N16" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>GFG</v>
+        <v>LeetCode</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
@@ -1505,58 +1535,52 @@
         <v>12</v>
       </c>
       <c r="B17" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" t="s">
-        <v>76</v>
+        <v>30</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="8" t="s">
-        <v>75</v>
+      <c r="E17" s="9" t="s">
+        <v>72</v>
       </c>
       <c r="F17" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H17" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="J17" s="1">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="K17" s="14">
         <v>44801</v>
       </c>
       <c r="N17" s="6" t="str">
         <f t="shared" si="0"/>
-        <v>LeetCode</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+        <v>GFG</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C18" t="s">
-        <v>80</v>
+        <v>77</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>76</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
-      <c r="E18" s="9" t="s">
-        <v>79</v>
+      <c r="E18" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="F18" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H18" s="13" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="I18" s="1" t="s">
         <v>33</v>
@@ -1577,28 +1601,28 @@
         <v>12</v>
       </c>
       <c r="B19" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" t="s">
-        <v>85</v>
+        <v>81</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>80</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
+        <v>16</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="F19" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="I19" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="J19" s="17" t="s">
-        <v>33</v>
+      <c r="J19" s="1">
+        <v>1</v>
       </c>
       <c r="K19" s="14">
         <v>44801</v>
@@ -1608,60 +1632,63 @@
         <v>LeetCode</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="45" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
       <c r="B20" t="s">
-        <v>89</v>
-      </c>
-      <c r="C20" t="s">
-        <v>90</v>
+        <v>49</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>85</v>
       </c>
       <c r="D20" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="8" t="s">
-        <v>88</v>
+      <c r="E20" s="9" t="s">
+        <v>84</v>
       </c>
       <c r="F20" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="13" t="s">
-        <v>91</v>
-      </c>
-      <c r="J20" s="1">
-        <v>1</v>
+        <v>86</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" s="17" t="s">
+        <v>33</v>
       </c>
       <c r="K20" s="14">
-        <v>44804</v>
+        <v>44801</v>
       </c>
       <c r="N20" s="6" t="str">
         <f t="shared" si="0"/>
         <v>LeetCode</v>
       </c>
     </row>
-    <row r="21" spans="1:14" ht="90" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>12</v>
       </c>
-      <c r="C21" t="s">
-        <v>93</v>
+      <c r="B21" t="s">
+        <v>89</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>90</v>
       </c>
       <c r="D21" t="s">
         <v>40</v>
       </c>
-      <c r="E21" s="9" t="s">
-        <v>92</v>
+      <c r="E21" s="8" t="s">
+        <v>88</v>
       </c>
       <c r="F21" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H21" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="I21" s="17" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="J21" s="1">
         <v>1</v>
@@ -1674,87 +1701,84 @@
         <v>LeetCode</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" ht="90" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>12</v>
       </c>
-      <c r="C22" t="s">
-        <v>97</v>
+      <c r="C22" s="13" t="s">
+        <v>93</v>
       </c>
       <c r="D22" t="s">
         <v>40</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F22" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="H22" s="13" t="s">
+        <v>94</v>
+      </c>
+      <c r="I22" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1</v>
+      </c>
       <c r="K22" s="14">
-        <v>44806</v>
+        <v>44804</v>
       </c>
       <c r="N22" s="6" t="str">
         <f t="shared" si="0"/>
         <v>LeetCode</v>
       </c>
     </row>
-    <row r="23" spans="1:14" ht="75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
-      <c r="B23" t="s">
-        <v>100</v>
-      </c>
-      <c r="C23" t="s">
-        <v>99</v>
+      <c r="C23" s="13" t="s">
+        <v>97</v>
       </c>
       <c r="D23" t="s">
         <v>40</v>
       </c>
-      <c r="E23" s="8" t="s">
-        <v>98</v>
+      <c r="E23" s="9" t="s">
+        <v>96</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="H23" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="I23" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="J23" s="1">
-        <v>1</v>
-      </c>
       <c r="K23" s="14">
-        <v>44807</v>
+        <v>44806</v>
       </c>
       <c r="N23" s="6" t="str">
         <f t="shared" si="0"/>
         <v>LeetCode</v>
       </c>
     </row>
-    <row r="24" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" ht="75" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>12</v>
       </c>
       <c r="B24" t="s">
         <v>100</v>
       </c>
-      <c r="C24" t="s">
-        <v>73</v>
+      <c r="C24" s="13" t="s">
+        <v>99</v>
       </c>
       <c r="D24" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="F24" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H24" s="13" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I24" s="1" t="s">
         <v>101</v>
@@ -1770,58 +1794,142 @@
         <v>LeetCode</v>
       </c>
     </row>
-    <row r="25" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" ht="60" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>105</v>
+        <v>100</v>
+      </c>
+      <c r="C25" s="13" t="s">
+        <v>73</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>40</v>
       </c>
       <c r="E25" s="8" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="F25" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H25" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="I25" s="17" t="s">
-        <v>108</v>
+        <v>104</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="J25" s="1">
         <v>1</v>
       </c>
       <c r="K25" s="14">
+        <v>44807</v>
+      </c>
+      <c r="N25" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="D26" t="s">
+        <v>16</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="J26" s="1">
+        <v>1</v>
+      </c>
+      <c r="K26" s="14">
         <v>44808</v>
       </c>
-      <c r="N25" s="6" t="str">
+      <c r="N26" s="6" t="str">
         <f t="shared" si="0"/>
         <v>GFG</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N26" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="J27" s="1">
+        <v>1</v>
+      </c>
       <c r="N27" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="D28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" s="13" t="s">
+        <v>116</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="J28" s="1">
+        <v>1</v>
+      </c>
+      <c r="K28" s="14">
+        <v>44808</v>
+      </c>
       <c r="N28" s="6" t="str">
         <f t="shared" si="0"/>
-        <v/>
+        <v>LeetCode</v>
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
@@ -1956,19 +2064,25 @@
         <v/>
       </c>
     </row>
+    <row r="51" spans="14:14" x14ac:dyDescent="0.25">
+      <c r="N51" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v/>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:B20" xr:uid="{AC222E2B-8064-4F1C-BFD0-04DC77C0240F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N20">
-    <sortCondition ref="A2:A20"/>
-    <sortCondition ref="B2:B20"/>
+  <autoFilter ref="A1:B21" xr:uid="{AC222E2B-8064-4F1C-BFD0-04DC77C0240F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:N21">
+    <sortCondition ref="A2:A21"/>
+    <sortCondition ref="B2:B21"/>
   </sortState>
   <dataConsolidate/>
-  <conditionalFormatting sqref="F2:F101">
+  <conditionalFormatting sqref="F2:F102">
     <cfRule type="expression" dxfId="3" priority="1">
       <formula>$F2="No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:N101">
+  <conditionalFormatting sqref="A2:N102">
     <cfRule type="expression" dxfId="2" priority="2">
       <formula>$D2="Hard"</formula>
     </cfRule>
@@ -1993,14 +2107,14 @@
   </dataValidations>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{F32B788E-BD5A-410E-BC2B-8BC8EFB452A8}"/>
-    <hyperlink ref="E14" r:id="rId2" xr:uid="{F283A9DA-D939-4F0F-9FE9-1731354C57A6}"/>
+    <hyperlink ref="E15" r:id="rId2" xr:uid="{F283A9DA-D939-4F0F-9FE9-1731354C57A6}"/>
     <hyperlink ref="E3" r:id="rId3" xr:uid="{E3514CEC-2111-40E0-8BEE-A276FDF2167F}"/>
-    <hyperlink ref="E16" r:id="rId4" xr:uid="{DEED6071-BEA9-466D-8204-619905DB9BC3}"/>
+    <hyperlink ref="E17" r:id="rId4" xr:uid="{DEED6071-BEA9-466D-8204-619905DB9BC3}"/>
     <hyperlink ref="E8" r:id="rId5" xr:uid="{A820BA95-E34F-4483-854C-F3E4403DD398}"/>
-    <hyperlink ref="E19" r:id="rId6" xr:uid="{52AD257C-C28D-4E7F-9A27-08A73469B06D}"/>
-    <hyperlink ref="E18" r:id="rId7" xr:uid="{71656C28-352C-4B88-BB47-4BDD8A04CAAC}"/>
-    <hyperlink ref="E21" r:id="rId8" xr:uid="{4FABE897-285E-4BB6-962D-1D640F2EC7E6}"/>
-    <hyperlink ref="E22" r:id="rId9" xr:uid="{F2D817F8-E524-4526-ADD6-04BDAFF2141C}"/>
+    <hyperlink ref="E20" r:id="rId6" xr:uid="{52AD257C-C28D-4E7F-9A27-08A73469B06D}"/>
+    <hyperlink ref="E19" r:id="rId7" xr:uid="{71656C28-352C-4B88-BB47-4BDD8A04CAAC}"/>
+    <hyperlink ref="E22" r:id="rId8" xr:uid="{4FABE897-285E-4BB6-962D-1D640F2EC7E6}"/>
+    <hyperlink ref="E23" r:id="rId9" xr:uid="{F2D817F8-E524-4526-ADD6-04BDAFF2141C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>

--- a/DSA Tracker.xlsx
+++ b/DSA Tracker.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Interview Prep\Learning-DSA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AD2709C-6C0E-465E-8F8E-79B2C6997228}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3738B1A6-A324-4DE4-85D4-58155225ED51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Problems" sheetId="5" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Problems!$A$1:$B$21</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="143">
   <si>
     <t>Level</t>
   </si>
@@ -436,6 +435,86 @@
   </si>
   <si>
     <t>Keep a flag for check, traverse through all the characters in string and if b is found then assign false to flag, and move forward. Moving forward if flag is false and character is a then return true. Else return true</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>Reverse a string</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-string/</t>
+  </si>
+  <si>
+    <t>n/2</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/remove-all-occurrences-of-a-substring/</t>
+  </si>
+  <si>
+    <t>Remove All Occurrences of a Substring</t>
+  </si>
+  <si>
+    <t>Use stl functions find() and erase()</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/subsets/</t>
+  </si>
+  <si>
+    <t>Subsets</t>
+  </si>
+  <si>
+    <t>Recursion</t>
+  </si>
+  <si>
+    <t>Base case - When index is equal to nums.size()</t>
+  </si>
+  <si>
+    <t>Start by taking first index number and recursively solve it.
+Solve 1st part by exluding the number and second part by including the number. After the solving the exclude part insert it into the output and solve again.</t>
+  </si>
+  <si>
+    <t>https://www.codingninjas.com/codestudio/problems/subsequences-of-string_985087</t>
+  </si>
+  <si>
+    <t>Subsequences of String</t>
+  </si>
+  <si>
+    <t>Similar to above, just working with strings</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/letter-combinations-of-a-phone-number</t>
+  </si>
+  <si>
+    <t>Letter Combinations of a Phone Number</t>
+  </si>
+  <si>
+    <t>Base case - When index is equal to digits.length()</t>
+  </si>
+  <si>
+    <t>Maintain a mapping of number and its possible letters.
+Take element from input using index and its mapping. For all the characters in mapping, run a for loop and solve it using recursion. Note - pop_back the output after the iteration, to get the previous state.</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/permutations/</t>
+  </si>
+  <si>
+    <t>Permutations</t>
+  </si>
+  <si>
+    <t>Permutation</t>
+  </si>
+  <si>
+    <t>Similar to above</t>
+  </si>
+  <si>
+    <t>https://practice.geeksforgeeks.org/problems/rat-in-a-maze-problem/1</t>
+  </si>
+  <si>
+    <t>Rat in a Maze Problem - I</t>
+  </si>
+  <si>
+    <t>Backtracking</t>
   </si>
 </sst>
 </file>
@@ -950,8 +1029,8 @@
   <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G22" sqref="G22"/>
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1933,120 +2012,297 @@
       </c>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" t="s">
+        <v>117</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" t="s">
+        <v>16</v>
+      </c>
+      <c r="E29" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="J29" s="1">
+        <v>1</v>
+      </c>
+      <c r="K29" s="14">
+        <v>44808</v>
+      </c>
       <c r="N29" s="6" t="str">
         <f t="shared" si="0"/>
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>117</v>
+      </c>
+      <c r="B30" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" t="s">
+        <v>16</v>
+      </c>
+      <c r="E30" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="N30" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D31" t="s">
+        <v>40</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G31" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H31" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K31" s="14">
+        <v>44835</v>
+      </c>
+      <c r="N31" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>126</v>
+      </c>
+      <c r="B32" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G32" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H32" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="K32" s="14">
+        <v>44835</v>
+      </c>
+      <c r="N32" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>CodeStudio</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" ht="60" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>126</v>
+      </c>
+      <c r="B33" t="s">
+        <v>117</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>133</v>
+      </c>
+      <c r="D33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G33" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="H33" s="13" t="s">
+        <v>135</v>
+      </c>
+      <c r="K33" s="14">
+        <v>44835</v>
+      </c>
+      <c r="N33" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>126</v>
+      </c>
+      <c r="B34" t="s">
+        <v>138</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G34" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="H34" s="13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K34" s="14">
+        <v>44835</v>
+      </c>
+      <c r="N34" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>LeetCode</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>126</v>
+      </c>
+      <c r="B35" t="s">
+        <v>142</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>141</v>
+      </c>
+      <c r="D35" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="14">
+        <v>44835</v>
+      </c>
+      <c r="N35" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>GFG</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N36" s="6" t="str">
+        <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N30" s="6" t="str">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N37" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N31" s="6" t="str">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N38" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="N32" s="6" t="str">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N39" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="33" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N33" s="6" t="str">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N40" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="34" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N34" s="6" t="str">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N41" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="35" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N35" s="6" t="str">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N42" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="36" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N36" s="6" t="str">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N43" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="37" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N37" s="6" t="str">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N44" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="38" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N38" s="6" t="str">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N45" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="39" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N39" s="6" t="str">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N46" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="40" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N40" s="6" t="str">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N47" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
       </c>
     </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N41" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="42" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N42" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="43" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N43" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="44" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N44" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="45" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N45" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="46" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N46" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="47" spans="14:14" x14ac:dyDescent="0.25">
-      <c r="N47" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
-    </row>
-    <row r="48" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
       <c r="N48" s="6" t="str">
         <f t="shared" si="0"/>
         <v/>
